--- a/local/lib/AmikomB2B/files_basket/basket_280.xlsx
+++ b/local/lib/AmikomB2B/files_basket/basket_280.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="20">
   <si>
     <r>
       <rPr>
@@ -125,7 +125,7 @@
         <sz val="11"/>
         <u val="none"/>
       </rPr>
-      <t xml:space="preserve">Дата и время выгрузки: 08/12/2025 в 21:26:17</t>
+      <t xml:space="preserve">Дата и время выгрузки: 11/12/2025 в 20:00:50</t>
     </r>
   </si>
   <si>
@@ -223,7 +223,7 @@
         <sz val="12"/>
         <u val="none"/>
       </rPr>
-      <t xml:space="preserve">DS-2CD2443G2-IW(2.8mm) (W)</t>
+      <t xml:space="preserve">RVi-1NCD2032 (2.8)</t>
     </r>
   </si>
   <si>
@@ -237,7 +237,7 @@
         <sz val="12"/>
         <u val="none"/>
       </rPr>
-      <t xml:space="preserve">DS-2CD2443G2-IW(2.8mm) (W) IP-камера 4Мп</t>
+      <t xml:space="preserve">RVi-1NCD2032 (2.8) IP камера видеонаблюдения</t>
     </r>
   </si>
   <si>
@@ -251,7 +251,7 @@
         <sz val="12"/>
         <u val="none"/>
       </rPr>
-      <t xml:space="preserve">14 343 ₽</t>
+      <t xml:space="preserve">4 284.50 ₽</t>
     </r>
   </si>
   <si>
@@ -265,133 +265,7 @@
         <sz val="12"/>
         <u val="none"/>
       </rPr>
-      <t xml:space="preserve">2</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <b val="false"/>
-        <i val="false"/>
-        <strike val="false"/>
-        <color rgb="FF000000"/>
-        <sz val="12"/>
-        <u val="none"/>
-      </rPr>
-      <t xml:space="preserve">28 686 ₽</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <b val="false"/>
-        <i val="false"/>
-        <strike val="false"/>
-        <color rgb="FF000000"/>
-        <sz val="12"/>
-        <u val="none"/>
-      </rPr>
-      <t xml:space="preserve">HBD3PR2</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <b val="false"/>
-        <i val="false"/>
-        <strike val="false"/>
-        <color rgb="FF000000"/>
-        <sz val="12"/>
-        <u val="none"/>
-      </rPr>
-      <t xml:space="preserve">HBD3PR2 IP-видеокамера 3Мп Honeywell	2,7–12 мм</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <b val="false"/>
-        <i val="false"/>
-        <strike val="false"/>
-        <color rgb="FF000000"/>
-        <sz val="12"/>
-        <u val="none"/>
-      </rPr>
-      <t xml:space="preserve">8 950 ₽</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <b val="false"/>
-        <i val="false"/>
-        <strike val="false"/>
-        <color rgb="FF000000"/>
-        <sz val="12"/>
-        <u val="none"/>
-      </rPr>
-      <t xml:space="preserve">17 900 ₽</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <b val="false"/>
-        <i val="false"/>
-        <strike val="false"/>
-        <color rgb="FF000000"/>
-        <sz val="12"/>
-        <u val="none"/>
-      </rPr>
-      <t xml:space="preserve">RVi-1NCD2032 (2.8)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <b val="false"/>
-        <i val="false"/>
-        <strike val="false"/>
-        <color rgb="FF000000"/>
-        <sz val="12"/>
-        <u val="none"/>
-      </rPr>
-      <t xml:space="preserve">RVi-1NCD2032 (2.8) IP камера видеонаблюдения</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <b val="false"/>
-        <i val="false"/>
-        <strike val="false"/>
-        <color rgb="FF000000"/>
-        <sz val="12"/>
-        <u val="none"/>
-      </rPr>
-      <t xml:space="preserve">4 284.50 ₽</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <b val="false"/>
-        <i val="false"/>
-        <strike val="false"/>
-        <color rgb="FF000000"/>
-        <sz val="12"/>
-        <u val="none"/>
-      </rPr>
-      <t xml:space="preserve">8 569 ₽</t>
+      <t xml:space="preserve">1</t>
     </r>
   </si>
   <si>
@@ -419,7 +293,7 @@
         <sz val="14"/>
         <u val="none"/>
       </rPr>
-      <t xml:space="preserve">55 155 ₽</t>
+      <t xml:space="preserve">4 284.50 ₽</t>
     </r>
   </si>
 </sst>
@@ -584,66 +458,6 @@
       </xdr:nvPicPr>
       <xdr:blipFill>
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm rot="0"/>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="1143000" cy="857250"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Sample Image" descr="This is a sample image."/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm rot="0"/>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="1143000" cy="1143000"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Sample Image" descr="This is a sample image."/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -950,10 +764,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1132,7 +946,7 @@
               <sz val="11"/>
               <u val="none"/>
             </rPr>
-            <t xml:space="preserve">Дата и время выгрузки: 08/12/2025 в 21:26:17</t>
+            <t xml:space="preserve">Дата и время выгрузки: 11/12/2025 в 20:00:50</t>
           </r>
         </is>
       </c>
@@ -1253,7 +1067,7 @@
               <sz val="12"/>
               <u val="none"/>
             </rPr>
-            <t xml:space="preserve">DS-2CD2443G2-IW(2.8mm) (W)</t>
+            <t xml:space="preserve">RVi-1NCD2032 (2.8)</t>
           </r>
         </is>
       </c>
@@ -1270,7 +1084,7 @@
               <sz val="12"/>
               <u val="none"/>
             </rPr>
-            <t xml:space="preserve">DS-2CD2443G2-IW(2.8mm) (W) IP-камера 4Мп</t>
+            <t xml:space="preserve">RVi-1NCD2032 (2.8) IP камера видеонаблюдения</t>
           </r>
         </is>
       </c>
@@ -1286,7 +1100,7 @@
               <sz val="12"/>
               <u val="none"/>
             </rPr>
-            <t xml:space="preserve">14 343 ₽</t>
+            <t xml:space="preserve">4 284.50 ₽</t>
           </r>
         </is>
       </c>
@@ -1302,7 +1116,7 @@
               <sz val="12"/>
               <u val="none"/>
             </rPr>
-            <t xml:space="preserve">2</t>
+            <t xml:space="preserve">1</t>
           </r>
         </is>
       </c>
@@ -1318,179 +1132,13 @@
               <sz val="12"/>
               <u val="none"/>
             </rPr>
-            <t xml:space="preserve">28 686 ₽</t>
+            <t xml:space="preserve">4 284.50 ₽</t>
           </r>
         </is>
       </c>
     </row>
-    <row r="10" spans="1:6" customHeight="1" ht="112.5">
-      <c r="A10" s="8" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-              <rFont val="Arial"/>
-              <b val="false"/>
-              <i val="false"/>
-              <strike val="false"/>
-              <color rgb="FF000000"/>
-              <sz val="12"/>
-              <u val="none"/>
-            </rPr>
-            <t xml:space="preserve">HBD3PR2</t>
-          </r>
-        </is>
-      </c>
-      <c r="B10" s="6"/>
-      <c r="C10" s="8" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-              <rFont val="Arial"/>
-              <b val="false"/>
-              <i val="false"/>
-              <strike val="false"/>
-              <color rgb="FF000000"/>
-              <sz val="12"/>
-              <u val="none"/>
-            </rPr>
-            <t xml:space="preserve">HBD3PR2 IP-видеокамера 3Мп Honeywell	2,7–12 мм</t>
-          </r>
-        </is>
-      </c>
-      <c r="D10" s="9" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-              <rFont val="Arial"/>
-              <b val="false"/>
-              <i val="false"/>
-              <strike val="false"/>
-              <color rgb="FF000000"/>
-              <sz val="12"/>
-              <u val="none"/>
-            </rPr>
-            <t xml:space="preserve">8 950 ₽</t>
-          </r>
-        </is>
-      </c>
-      <c r="E10" s="10" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-              <rFont val="Arial"/>
-              <b val="false"/>
-              <i val="false"/>
-              <strike val="false"/>
-              <color rgb="FF000000"/>
-              <sz val="12"/>
-              <u val="none"/>
-            </rPr>
-            <t xml:space="preserve">2</t>
-          </r>
-        </is>
-      </c>
-      <c r="F10" s="9" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-              <rFont val="Arial"/>
-              <b val="false"/>
-              <i val="false"/>
-              <strike val="false"/>
-              <color rgb="FF000000"/>
-              <sz val="12"/>
-              <u val="none"/>
-            </rPr>
-            <t xml:space="preserve">17 900 ₽</t>
-          </r>
-        </is>
-      </c>
-    </row>
-    <row r="11" spans="1:6" customHeight="1" ht="112.5">
-      <c r="A11" s="8" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-              <rFont val="Arial"/>
-              <b val="false"/>
-              <i val="false"/>
-              <strike val="false"/>
-              <color rgb="FF000000"/>
-              <sz val="12"/>
-              <u val="none"/>
-            </rPr>
-            <t xml:space="preserve">RVi-1NCD2032 (2.8)</t>
-          </r>
-        </is>
-      </c>
-      <c r="B11" s="6"/>
-      <c r="C11" s="8" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-              <rFont val="Arial"/>
-              <b val="false"/>
-              <i val="false"/>
-              <strike val="false"/>
-              <color rgb="FF000000"/>
-              <sz val="12"/>
-              <u val="none"/>
-            </rPr>
-            <t xml:space="preserve">RVi-1NCD2032 (2.8) IP камера видеонаблюдения</t>
-          </r>
-        </is>
-      </c>
-      <c r="D11" s="9" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-              <rFont val="Arial"/>
-              <b val="false"/>
-              <i val="false"/>
-              <strike val="false"/>
-              <color rgb="FF000000"/>
-              <sz val="12"/>
-              <u val="none"/>
-            </rPr>
-            <t xml:space="preserve">4 284.50 ₽</t>
-          </r>
-        </is>
-      </c>
-      <c r="E11" s="10" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-              <rFont val="Arial"/>
-              <b val="false"/>
-              <i val="false"/>
-              <strike val="false"/>
-              <color rgb="FF000000"/>
-              <sz val="12"/>
-              <u val="none"/>
-            </rPr>
-            <t xml:space="preserve">2</t>
-          </r>
-        </is>
-      </c>
-      <c r="F11" s="9" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-              <rFont val="Arial"/>
-              <b val="false"/>
-              <i val="false"/>
-              <strike val="false"/>
-              <color rgb="FF000000"/>
-              <sz val="12"/>
-              <u val="none"/>
-            </rPr>
-            <t xml:space="preserve">8 569 ₽</t>
-          </r>
-        </is>
-      </c>
-    </row>
-    <row r="12" spans="1:6" customHeight="1" ht="30">
-      <c r="A12" s="11" t="inlineStr">
+    <row r="10" spans="1:6" customHeight="1" ht="30">
+      <c r="A10" s="11" t="inlineStr">
         <is>
           <r>
             <rPr>
@@ -1506,9 +1154,9 @@
           </r>
         </is>
       </c>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="11" t="inlineStr">
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="11" t="inlineStr">
         <is>
           <r>
             <rPr>
@@ -1520,12 +1168,12 @@
               <sz val="14"/>
               <u val="none"/>
             </rPr>
-            <t xml:space="preserve">55 155 ₽</t>
-          </r>
-        </is>
-      </c>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
+            <t xml:space="preserve">4 284.50 ₽</t>
+          </r>
+        </is>
+      </c>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -1537,8 +1185,8 @@
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="A6:F6"/>
     <mergeCell ref="A7:F7"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="D10:F10"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId_hyperlink_1"/>
@@ -1548,8 +1196,6 @@
     <hyperlink ref="E3" r:id="rId_hyperlink_5"/>
     <hyperlink ref="E4" r:id="rId_hyperlink_6"/>
     <hyperlink ref="A9" r:id="rId_hyperlink_7"/>
-    <hyperlink ref="A10" r:id="rId_hyperlink_8"/>
-    <hyperlink ref="A11" r:id="rId_hyperlink_9"/>
   </hyperlinks>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
